--- a/biology/Médecine/Signe_de_Kernig/Signe_de_Kernig.xlsx
+++ b/biology/Médecine/Signe_de_Kernig/Signe_de_Kernig.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le signe de Kernig est observé en neurologie dans le cadre du syndrome méningé. Il fut décrit en 1882 par Wladimir Kernig, médecin russe d'origine balto-allemande[1],[2],[3],[4].
+Le signe de Kernig est observé en neurologie dans le cadre du syndrome méningé. Il fut décrit en 1882 par Wladimir Kernig, médecin russe d'origine balto-allemande.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le signe de Kernig se recherche en pliant les cuisses sur le bassin, jambes étendues. Une douleur apparaît, s'opposant au maintien en extension des genoux et obligeant le patient à fléchir les jambes sur les cuisses. Une manière alternative de procéder est de demander au patient allongé de se redresser et de s'asseoir : on observe une flexion des jambes et cuisses sur le bassin[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le signe de Kernig se recherche en pliant les cuisses sur le bassin, jambes étendues. Une douleur apparaît, s'opposant au maintien en extension des genoux et obligeant le patient à fléchir les jambes sur les cuisses. Une manière alternative de procéder est de demander au patient allongé de se redresser et de s'asseoir : on observe une flexion des jambes et cuisses sur le bassin,.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Pathologies au cours desquelles il est rencontré</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le signe de Kernig est habituellement associé à une raideur de la nuque et au signe de Brudzinski, dans le cadre du syndrome méningé.
 Hémorragie méningée
